--- a/public/remanejamento.xlsx
+++ b/public/remanejamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnobrega\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnobrega\git\insieme-frontend\master\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD792B0C-7A1A-4A87-B78C-EBFDCF5484A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D09BE8-666E-4960-8099-71056A0E8512}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0A1853DF-64F4-4836-B1C8-D134FD953825}"/>
   </bookViews>
@@ -46,58 +46,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
-    <t>IDENTIFICAÇÃO DA ESTAÇÃO</t>
-  </si>
-  <si>
-    <t>ENDEREÇO DE DESTINO</t>
-  </si>
-  <si>
-    <t>ENDEREÇO</t>
-  </si>
-  <si>
-    <t>BAIRRO</t>
-  </si>
-  <si>
-    <t>CIDADE</t>
-  </si>
-  <si>
-    <t>UF</t>
-  </si>
-  <si>
-    <t>CEP</t>
-  </si>
-  <si>
-    <t>CONTATO DO CLIENTE</t>
-  </si>
-  <si>
-    <t>TELEFONE DO CLIENTE</t>
-  </si>
-  <si>
-    <t>OBSERVAÇÃO</t>
-  </si>
-  <si>
-    <t>DESIGNAÇÃO CLIENTE</t>
-  </si>
-  <si>
     <t>LATITUDE</t>
   </si>
   <si>
     <t>LONGITUDE</t>
-  </si>
-  <si>
-    <r>
-      <t>TIPO DO REMANEJAMENTO</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>*</t>
-    </r>
   </si>
   <si>
     <r>
@@ -119,12 +71,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>campo obrigatório</t>
+      <t>campo obrigatório/ required field</t>
     </r>
   </si>
   <si>
     <r>
-      <t>DESIGNAÇÃO TELESPAZIO</t>
+      <t>TELESPAZIO DESIGNATION/DESIGNAÇÃO TELESPAZIO</t>
     </r>
     <r>
       <rPr>
@@ -138,8 +90,11 @@
     </r>
   </si>
   <si>
+    <t>CLIENT DESIGNATION/DESIGNAÇÃO CLIENTE</t>
+  </si>
+  <si>
     <r>
-      <t>ENDEREÇO DE ORIGEM</t>
+      <t>RELOCATION TYPE/TIPO DO REMANEJAMENTO</t>
     </r>
     <r>
       <rPr>
@@ -151,6 +106,51 @@
       </rPr>
       <t>*</t>
     </r>
+  </si>
+  <si>
+    <t>ADDRESS/ENDEREÇO</t>
+  </si>
+  <si>
+    <t>DISTRICT/BAIRRO</t>
+  </si>
+  <si>
+    <t>CITY/CIDADE</t>
+  </si>
+  <si>
+    <t>STATE/UF</t>
+  </si>
+  <si>
+    <t>ZIPCODE/CEP</t>
+  </si>
+  <si>
+    <t>CLIENT CONTACT/CONTATO DO CLIENTE</t>
+  </si>
+  <si>
+    <t>CLIENT PHONE/TELEFONE DO CLIENTE</t>
+  </si>
+  <si>
+    <t>OBSERVATION/OBSERVAÇÃO</t>
+  </si>
+  <si>
+    <t>STATION IDENTIFICATION/IDENTIFICAÇÃO DA ESTAÇÃO</t>
+  </si>
+  <si>
+    <r>
+      <t>ORIGIN ADDRESS/ENDEREÇO DE ORIGEM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>DESTINATION ADDRESS/ENDEREÇO DE DESTINO</t>
   </si>
 </sst>
 </file>
@@ -15788,8 +15788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097AB07F-A8E4-439F-ACF7-48CAF28744A1}">
   <dimension ref="B1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15804,7 +15804,7 @@
     <col min="10" max="11" width="20.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="26" style="1" customWidth="1"/>
     <col min="13" max="14" width="25.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" style="1" customWidth="1"/>
     <col min="17" max="20" width="20.7109375" style="1" customWidth="1"/>
     <col min="21" max="21" width="50.7109375" style="1" customWidth="1"/>
@@ -16695,12 +16695,12 @@
   <sheetData>
     <row r="1" spans="2:21" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -16709,7 +16709,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="12" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
@@ -16721,66 +16721,66 @@
       <c r="T1" s="14"/>
       <c r="U1" s="5"/>
     </row>
-    <row r="2" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="O2" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -17181,7 +17181,7 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
